--- a/Assignment 2.xlsx
+++ b/Assignment 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vissa\IdeaProjects\realtime2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BC348FC-839C-4A88-B612-634DF8CD8FC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1967AC4C-0FE5-4111-AA97-B2B6D85591D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
     <t>Number of following</t>
   </si>
   <si>
-    <t>Number of star</t>
+    <t>Number of stars</t>
   </si>
   <si>
     <t>wzul</t>
@@ -887,16 +887,16 @@
   <dimension ref="A1:F166"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17.44140625" customWidth="1"/>
-    <col min="3" max="3" width="20.88671875" customWidth="1"/>
-    <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" customWidth="1"/>
-    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="2" max="2" width="16.77734375" customWidth="1"/>
+    <col min="3" max="3" width="20.44140625" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="5" max="5" width="20.109375" customWidth="1"/>
+    <col min="6" max="6" width="15.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -3447,7 +3447,7 @@
         <v>132</v>
       </c>
       <c r="C128">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D128">
         <v>7</v>
@@ -3487,7 +3487,7 @@
         <v>134</v>
       </c>
       <c r="C130">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D130">
         <v>7</v>
@@ -3647,7 +3647,7 @@
         <v>142</v>
       </c>
       <c r="C138">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D138">
         <v>0</v>
